--- a/Financials/Quarterly/BSBR_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BSBR_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADE9E6-FA9A-4D39-8E35-133726B0D819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSBR" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>BSBR</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4561600</v>
+        <v>4685400</v>
       </c>
       <c r="E8" s="3">
-        <v>4227500</v>
+        <v>4714200</v>
       </c>
       <c r="F8" s="3">
-        <v>4119000</v>
+        <v>4369000</v>
       </c>
       <c r="G8" s="3">
-        <v>4393100</v>
+        <v>4256800</v>
       </c>
       <c r="H8" s="3">
-        <v>4461100</v>
+        <v>4540100</v>
       </c>
       <c r="I8" s="3">
-        <v>4744300</v>
+        <v>4610400</v>
       </c>
       <c r="J8" s="3">
+        <v>4903000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4832000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +806,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +838,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +854,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +884,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +916,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +948,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-112100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-111400</v>
+      </c>
+      <c r="H15" s="3">
         <v>-107000</v>
       </c>
-      <c r="E15" s="3">
-        <v>-107200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-107800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-103500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-102100</v>
-      </c>
       <c r="I15" s="3">
-        <v>-98900</v>
+        <v>-105500</v>
       </c>
       <c r="J15" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-95800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-92500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +993,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2001100</v>
+        <v>1850600</v>
       </c>
       <c r="E17" s="3">
-        <v>1791500</v>
+        <v>2068100</v>
       </c>
       <c r="F17" s="3">
-        <v>2688800</v>
+        <v>1851500</v>
       </c>
       <c r="G17" s="3">
-        <v>2881900</v>
+        <v>2778700</v>
       </c>
       <c r="H17" s="3">
-        <v>3018900</v>
+        <v>2978400</v>
       </c>
       <c r="I17" s="3">
-        <v>3519200</v>
+        <v>3119900</v>
       </c>
       <c r="J17" s="3">
+        <v>3636900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4021600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3651800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2560500</v>
+        <v>2834800</v>
       </c>
       <c r="E18" s="3">
-        <v>2436000</v>
+        <v>2646100</v>
       </c>
       <c r="F18" s="3">
-        <v>1430200</v>
+        <v>2517500</v>
       </c>
       <c r="G18" s="3">
-        <v>1511100</v>
+        <v>1478100</v>
       </c>
       <c r="H18" s="3">
-        <v>1442200</v>
+        <v>1561700</v>
       </c>
       <c r="I18" s="3">
-        <v>1225100</v>
+        <v>1490500</v>
       </c>
       <c r="J18" s="3">
+        <v>1266100</v>
+      </c>
+      <c r="K18" s="3">
         <v>810500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1221600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1071,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2589100</v>
+        <v>-1717700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1228900</v>
+        <v>-2675700</v>
       </c>
       <c r="F20" s="3">
-        <v>-823600</v>
+        <v>-1270100</v>
       </c>
       <c r="G20" s="3">
-        <v>-122500</v>
+        <v>-851100</v>
       </c>
       <c r="H20" s="3">
-        <v>-913800</v>
+        <v>-126600</v>
       </c>
       <c r="I20" s="3">
-        <v>-148200</v>
+        <v>-944400</v>
       </c>
       <c r="J20" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-740700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-449800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>78300</v>
+        <v>1229100</v>
       </c>
       <c r="E21" s="3">
-        <v>1314200</v>
+        <v>81000</v>
       </c>
       <c r="F21" s="3">
-        <v>714500</v>
+        <v>1358200</v>
       </c>
       <c r="G21" s="3">
-        <v>1492200</v>
+        <v>738400</v>
       </c>
       <c r="H21" s="3">
-        <v>630500</v>
+        <v>1542100</v>
       </c>
       <c r="I21" s="3">
-        <v>1175800</v>
+        <v>651600</v>
       </c>
       <c r="J21" s="3">
+        <v>1215100</v>
+      </c>
+      <c r="K21" s="3">
         <v>165600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>864200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1165,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28600</v>
+        <v>1117100</v>
       </c>
       <c r="E23" s="3">
-        <v>1207100</v>
+        <v>-29600</v>
       </c>
       <c r="F23" s="3">
-        <v>606700</v>
+        <v>1247400</v>
       </c>
       <c r="G23" s="3">
-        <v>1388700</v>
+        <v>627000</v>
       </c>
       <c r="H23" s="3">
-        <v>528400</v>
+        <v>1435100</v>
       </c>
       <c r="I23" s="3">
-        <v>1076800</v>
+        <v>546100</v>
       </c>
       <c r="J23" s="3">
+        <v>1112900</v>
+      </c>
+      <c r="K23" s="3">
         <v>69800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>771700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-753400</v>
+        <v>286200</v>
       </c>
       <c r="E24" s="3">
-        <v>494700</v>
+        <v>-778600</v>
       </c>
       <c r="F24" s="3">
-        <v>-9500</v>
+        <v>511200</v>
       </c>
       <c r="G24" s="3">
-        <v>797500</v>
+        <v>-9800</v>
       </c>
       <c r="H24" s="3">
-        <v>-33100</v>
+        <v>824200</v>
       </c>
       <c r="I24" s="3">
-        <v>578700</v>
+        <v>-34200</v>
       </c>
       <c r="J24" s="3">
+        <v>598100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-306700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1261,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>724800</v>
+        <v>830900</v>
       </c>
       <c r="E26" s="3">
-        <v>712400</v>
+        <v>749000</v>
       </c>
       <c r="F26" s="3">
-        <v>616200</v>
+        <v>736200</v>
       </c>
       <c r="G26" s="3">
-        <v>591200</v>
+        <v>636800</v>
       </c>
       <c r="H26" s="3">
-        <v>561500</v>
+        <v>610900</v>
       </c>
       <c r="I26" s="3">
-        <v>498100</v>
+        <v>580300</v>
       </c>
       <c r="J26" s="3">
+        <v>514800</v>
+      </c>
+      <c r="K26" s="3">
         <v>376500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>570800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>713400</v>
+        <v>816700</v>
       </c>
       <c r="E27" s="3">
-        <v>701100</v>
+        <v>737300</v>
       </c>
       <c r="F27" s="3">
-        <v>601900</v>
+        <v>724600</v>
       </c>
       <c r="G27" s="3">
-        <v>576600</v>
+        <v>622100</v>
       </c>
       <c r="H27" s="3">
-        <v>548700</v>
+        <v>595800</v>
       </c>
       <c r="I27" s="3">
-        <v>486700</v>
+        <v>567100</v>
       </c>
       <c r="J27" s="3">
+        <v>503000</v>
+      </c>
+      <c r="K27" s="3">
         <v>364200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>560600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1357,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1389,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1421,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1453,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2589100</v>
+        <v>1717700</v>
       </c>
       <c r="E32" s="3">
-        <v>1228900</v>
+        <v>2675700</v>
       </c>
       <c r="F32" s="3">
-        <v>823600</v>
+        <v>1270100</v>
       </c>
       <c r="G32" s="3">
-        <v>122500</v>
+        <v>851100</v>
       </c>
       <c r="H32" s="3">
-        <v>913800</v>
+        <v>126600</v>
       </c>
       <c r="I32" s="3">
-        <v>148200</v>
+        <v>944400</v>
       </c>
       <c r="J32" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K32" s="3">
         <v>740700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>449800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>713400</v>
+        <v>816700</v>
       </c>
       <c r="E33" s="3">
-        <v>701100</v>
+        <v>737300</v>
       </c>
       <c r="F33" s="3">
-        <v>601900</v>
+        <v>724600</v>
       </c>
       <c r="G33" s="3">
-        <v>576600</v>
+        <v>622100</v>
       </c>
       <c r="H33" s="3">
-        <v>548700</v>
+        <v>595800</v>
       </c>
       <c r="I33" s="3">
-        <v>486700</v>
+        <v>567100</v>
       </c>
       <c r="J33" s="3">
+        <v>503000</v>
+      </c>
+      <c r="K33" s="3">
         <v>364200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>560600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1549,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>713400</v>
+        <v>816700</v>
       </c>
       <c r="E35" s="3">
-        <v>701100</v>
+        <v>737300</v>
       </c>
       <c r="F35" s="3">
-        <v>601900</v>
+        <v>724600</v>
       </c>
       <c r="G35" s="3">
-        <v>576600</v>
+        <v>622100</v>
       </c>
       <c r="H35" s="3">
-        <v>548700</v>
+        <v>595800</v>
       </c>
       <c r="I35" s="3">
-        <v>486700</v>
+        <v>567100</v>
       </c>
       <c r="J35" s="3">
+        <v>503000</v>
+      </c>
+      <c r="K35" s="3">
         <v>364200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>560600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1634,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1648,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37027900</v>
+        <v>40148900</v>
       </c>
       <c r="E41" s="3">
-        <v>32473200</v>
+        <v>38266700</v>
       </c>
       <c r="F41" s="3">
-        <v>37406200</v>
+        <v>33559700</v>
       </c>
       <c r="G41" s="3">
-        <v>38309900</v>
+        <v>34141100</v>
       </c>
       <c r="H41" s="3">
-        <v>38876700</v>
+        <v>35125200</v>
       </c>
       <c r="I41" s="3">
-        <v>36873000</v>
+        <v>35783300</v>
       </c>
       <c r="J41" s="3">
+        <v>34289600</v>
+      </c>
+      <c r="K41" s="3">
         <v>38365700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39961200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31055800</v>
+        <v>29614700</v>
       </c>
       <c r="E42" s="3">
-        <v>33142300</v>
+        <v>32094800</v>
       </c>
       <c r="F42" s="3">
-        <v>13476800</v>
+        <v>34251100</v>
       </c>
       <c r="G42" s="3">
-        <v>15383400</v>
+        <v>13927700</v>
       </c>
       <c r="H42" s="3">
-        <v>14034400</v>
+        <v>15898100</v>
       </c>
       <c r="I42" s="3">
-        <v>19752900</v>
+        <v>14503900</v>
       </c>
       <c r="J42" s="3">
+        <v>20413800</v>
+      </c>
+      <c r="K42" s="3">
         <v>21535200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1742,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1774,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1806,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1838,107 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>244400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>237900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>222200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>227900</v>
+      </c>
+      <c r="I47" s="3">
         <v>236400</v>
       </c>
-      <c r="E47" s="3">
-        <v>230200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>215000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>220500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>228800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>244300</v>
-      </c>
       <c r="J47" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K47" s="3">
         <v>245600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1599300</v>
+        <v>1630400</v>
       </c>
       <c r="E48" s="3">
-        <v>1590700</v>
+        <v>1652800</v>
       </c>
       <c r="F48" s="3">
-        <v>1615000</v>
+        <v>1643900</v>
       </c>
       <c r="G48" s="3">
-        <v>1576600</v>
+        <v>1669000</v>
       </c>
       <c r="H48" s="3">
-        <v>1604100</v>
+        <v>1629300</v>
       </c>
       <c r="I48" s="3">
-        <v>1617000</v>
+        <v>1657800</v>
       </c>
       <c r="J48" s="3">
+        <v>1671100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1648800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7415000</v>
+        <v>7670500</v>
       </c>
       <c r="E49" s="3">
-        <v>7477400</v>
+        <v>7663100</v>
       </c>
       <c r="F49" s="3">
-        <v>7492500</v>
+        <v>7727600</v>
       </c>
       <c r="G49" s="3">
-        <v>7555400</v>
+        <v>7743200</v>
       </c>
       <c r="H49" s="3">
-        <v>7537800</v>
+        <v>7808100</v>
       </c>
       <c r="I49" s="3">
-        <v>7513400</v>
+        <v>7790000</v>
       </c>
       <c r="J49" s="3">
+        <v>7764800</v>
+      </c>
+      <c r="K49" s="3">
         <v>7501200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7469300</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1966,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1998,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1549300</v>
+        <v>7323600</v>
       </c>
       <c r="E52" s="3">
-        <v>6602200</v>
+        <v>1601200</v>
       </c>
       <c r="F52" s="3">
-        <v>6433600</v>
+        <v>6823100</v>
       </c>
       <c r="G52" s="3">
-        <v>6464700</v>
+        <v>6648800</v>
       </c>
       <c r="H52" s="3">
-        <v>6731700</v>
+        <v>6680900</v>
       </c>
       <c r="I52" s="3">
-        <v>6379900</v>
+        <v>6956900</v>
       </c>
       <c r="J52" s="3">
+        <v>6593300</v>
+      </c>
+      <c r="K52" s="3">
         <v>6394300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6408100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2062,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>172772200</v>
+        <v>180449800</v>
       </c>
       <c r="E54" s="3">
-        <v>167139000</v>
+        <v>178552600</v>
       </c>
       <c r="F54" s="3">
-        <v>160186000</v>
+        <v>172731000</v>
       </c>
       <c r="G54" s="3">
-        <v>161591400</v>
+        <v>165545300</v>
       </c>
       <c r="H54" s="3">
-        <v>157152100</v>
+        <v>166997800</v>
       </c>
       <c r="I54" s="3">
-        <v>154989800</v>
+        <v>162410000</v>
       </c>
       <c r="J54" s="3">
+        <v>160175300</v>
+      </c>
+      <c r="K54" s="3">
         <v>157380300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>151795700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2110,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,8 +2124,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,8 +2154,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2186,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1267100</v>
+        <v>1498300</v>
       </c>
       <c r="E59" s="3">
-        <v>1269600</v>
+        <v>1309400</v>
       </c>
       <c r="F59" s="3">
-        <v>1426800</v>
+        <v>1312100</v>
       </c>
       <c r="G59" s="3">
-        <v>1407600</v>
+        <v>1474600</v>
       </c>
       <c r="H59" s="3">
-        <v>1289900</v>
+        <v>1454700</v>
       </c>
       <c r="I59" s="3">
-        <v>1299700</v>
+        <v>1333000</v>
       </c>
       <c r="J59" s="3">
+        <v>1343200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1197400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1390800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2250,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19836900</v>
+        <v>21667300</v>
       </c>
       <c r="E61" s="3">
-        <v>20763400</v>
+        <v>20500600</v>
       </c>
       <c r="F61" s="3">
-        <v>19648700</v>
+        <v>21458100</v>
       </c>
       <c r="G61" s="3">
-        <v>19959800</v>
+        <v>20306100</v>
       </c>
       <c r="H61" s="3">
-        <v>21962100</v>
+        <v>20627600</v>
       </c>
       <c r="I61" s="3">
-        <v>24379400</v>
+        <v>22696900</v>
       </c>
       <c r="J61" s="3">
+        <v>25195100</v>
+      </c>
+      <c r="K61" s="3">
         <v>26946700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26666400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3855100</v>
+        <v>4017200</v>
       </c>
       <c r="E62" s="3">
-        <v>4415700</v>
+        <v>3984100</v>
       </c>
       <c r="F62" s="3">
-        <v>4089200</v>
+        <v>4563400</v>
       </c>
       <c r="G62" s="3">
-        <v>4250800</v>
+        <v>4226000</v>
       </c>
       <c r="H62" s="3">
-        <v>3974700</v>
+        <v>4393000</v>
       </c>
       <c r="I62" s="3">
-        <v>3684600</v>
+        <v>4107700</v>
       </c>
       <c r="J62" s="3">
+        <v>3807800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3236100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3220500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2346,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2378,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2410,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>150766300</v>
+        <v>157100200</v>
       </c>
       <c r="E66" s="3">
-        <v>145327700</v>
+        <v>155810400</v>
       </c>
       <c r="F66" s="3">
-        <v>138689700</v>
+        <v>150189900</v>
       </c>
       <c r="G66" s="3">
-        <v>139287300</v>
+        <v>143329800</v>
       </c>
       <c r="H66" s="3">
-        <v>135391800</v>
+        <v>143947400</v>
       </c>
       <c r="I66" s="3">
-        <v>133360100</v>
+        <v>139921600</v>
       </c>
       <c r="J66" s="3">
+        <v>137821900</v>
+      </c>
+      <c r="K66" s="3">
         <v>136520000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>129998400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2458,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2488,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2520,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2552,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2584,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8396900</v>
+        <v>9335000</v>
       </c>
       <c r="E72" s="3">
-        <v>7837300</v>
+        <v>8677800</v>
       </c>
       <c r="F72" s="3">
-        <v>7584700</v>
+        <v>8099500</v>
       </c>
       <c r="G72" s="3">
-        <v>8230000</v>
+        <v>7838400</v>
       </c>
       <c r="H72" s="3">
-        <v>8086500</v>
+        <v>8505400</v>
       </c>
       <c r="I72" s="3">
-        <v>7661400</v>
+        <v>8357000</v>
       </c>
       <c r="J72" s="3">
+        <v>7917800</v>
+      </c>
+      <c r="K72" s="3">
         <v>7181600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7980100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2648,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2680,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2712,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22005900</v>
+        <v>23349600</v>
       </c>
       <c r="E76" s="3">
-        <v>21811300</v>
+        <v>22742200</v>
       </c>
       <c r="F76" s="3">
-        <v>21496300</v>
+        <v>22541100</v>
       </c>
       <c r="G76" s="3">
-        <v>22304100</v>
+        <v>22215500</v>
       </c>
       <c r="H76" s="3">
-        <v>21760400</v>
+        <v>23050300</v>
       </c>
       <c r="I76" s="3">
-        <v>21629700</v>
+        <v>22488400</v>
       </c>
       <c r="J76" s="3">
+        <v>22353400</v>
+      </c>
+      <c r="K76" s="3">
         <v>20860300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21797300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2776,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>713400</v>
+        <v>816700</v>
       </c>
       <c r="E81" s="3">
-        <v>701100</v>
+        <v>737300</v>
       </c>
       <c r="F81" s="3">
-        <v>601900</v>
+        <v>724600</v>
       </c>
       <c r="G81" s="3">
-        <v>576600</v>
+        <v>622100</v>
       </c>
       <c r="H81" s="3">
-        <v>548700</v>
+        <v>595800</v>
       </c>
       <c r="I81" s="3">
-        <v>486700</v>
+        <v>567100</v>
       </c>
       <c r="J81" s="3">
+        <v>503000</v>
+      </c>
+      <c r="K81" s="3">
         <v>364200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>560600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2861,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>110500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>110800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>111400</v>
+      </c>
+      <c r="H83" s="3">
         <v>107000</v>
       </c>
-      <c r="E83" s="3">
-        <v>107200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>107800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>103500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>102100</v>
-      </c>
       <c r="I83" s="3">
-        <v>98900</v>
+        <v>105500</v>
       </c>
       <c r="J83" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K83" s="3">
         <v>95800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2923,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2955,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2987,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3019,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3051,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2704600</v>
+        <v>734400</v>
       </c>
       <c r="E89" s="3">
-        <v>281500</v>
+        <v>2795100</v>
       </c>
       <c r="F89" s="3">
-        <v>3282000</v>
+        <v>290900</v>
       </c>
       <c r="G89" s="3">
-        <v>553700</v>
+        <v>3391900</v>
       </c>
       <c r="H89" s="3">
-        <v>3938000</v>
+        <v>572300</v>
       </c>
       <c r="I89" s="3">
-        <v>4702400</v>
+        <v>4069800</v>
       </c>
       <c r="J89" s="3">
+        <v>4859700</v>
+      </c>
+      <c r="K89" s="3">
         <v>938000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-677200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3099,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15600</v>
+        <v>-59800</v>
       </c>
       <c r="E91" s="3">
-        <v>-129800</v>
+        <v>-82800</v>
       </c>
       <c r="F91" s="3">
-        <v>-166200</v>
+        <v>-67300</v>
       </c>
       <c r="G91" s="3">
-        <v>-109200</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-113100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-80000</v>
+        <v>33700</v>
       </c>
       <c r="J91" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-111100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>102900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3161,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3193,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>145700</v>
+        <v>-140300</v>
       </c>
       <c r="E94" s="3">
-        <v>-137000</v>
+        <v>150600</v>
       </c>
       <c r="F94" s="3">
-        <v>-169700</v>
+        <v>-141600</v>
       </c>
       <c r="G94" s="3">
-        <v>-61900</v>
+        <v>-175400</v>
       </c>
       <c r="H94" s="3">
-        <v>-67200</v>
+        <v>-63900</v>
       </c>
       <c r="I94" s="3">
-        <v>-61600</v>
+        <v>-69500</v>
       </c>
       <c r="J94" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3241,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-131600</v>
+        <v>-154600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1100200</v>
+        <v>-136000</v>
       </c>
       <c r="F96" s="3">
-        <v>-111900</v>
+        <v>-1137000</v>
       </c>
       <c r="G96" s="3">
-        <v>-140500</v>
+        <v>-115600</v>
       </c>
       <c r="H96" s="3">
-        <v>-107700</v>
+        <v>-145200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1042200</v>
+        <v>-111300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1077000</v>
+      </c>
+      <c r="K96" s="3">
         <v>2800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-109700</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3303,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3335,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3367,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2530900</v>
+        <v>591900</v>
       </c>
       <c r="E100" s="3">
-        <v>-308000</v>
+        <v>-2615600</v>
       </c>
       <c r="F100" s="3">
-        <v>-962600</v>
+        <v>-318300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2499800</v>
+        <v>-994800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3273100</v>
+        <v>-2583500</v>
       </c>
       <c r="I100" s="3">
-        <v>-4253600</v>
+        <v>-3382600</v>
       </c>
       <c r="J100" s="3">
+        <v>-4395900</v>
+      </c>
+      <c r="K100" s="3">
         <v>19500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2587800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
-        <v>32200</v>
-      </c>
       <c r="I101" s="3">
-        <v>-32100</v>
+        <v>33300</v>
       </c>
       <c r="J101" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-303000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>437700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>319600</v>
+        <v>1185400</v>
       </c>
       <c r="E102" s="3">
-        <v>-163600</v>
+        <v>330300</v>
       </c>
       <c r="F102" s="3">
-        <v>2150300</v>
+        <v>-169100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2008600</v>
+        <v>2222200</v>
       </c>
       <c r="H102" s="3">
-        <v>629900</v>
+        <v>-2075800</v>
       </c>
       <c r="I102" s="3">
-        <v>355100</v>
+        <v>651000</v>
       </c>
       <c r="J102" s="3">
+        <v>366900</v>
+      </c>
+      <c r="K102" s="3">
         <v>634300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2475700</v>
       </c>
     </row>

--- a/Financials/Quarterly/BSBR_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BSBR_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADE9E6-FA9A-4D39-8E35-133726B0D819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BSBR" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BSBR</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,96 +654,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4685400</v>
+        <v>4357600</v>
       </c>
       <c r="E8" s="3">
-        <v>4714200</v>
+        <v>4287700</v>
       </c>
       <c r="F8" s="3">
-        <v>4369000</v>
+        <v>4280700</v>
       </c>
       <c r="G8" s="3">
+        <v>3917200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4267600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4293900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3979400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4256800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>4540100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>4610400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>4903000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>4832000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>4873400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +798,20 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +842,20 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +904,20 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,8 +948,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,40 +992,64 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-112100</v>
+        <v>-142800</v>
       </c>
       <c r="E15" s="3">
-        <v>-110500</v>
+        <v>-136400</v>
       </c>
       <c r="F15" s="3">
-        <v>-110800</v>
+        <v>-133800</v>
       </c>
       <c r="G15" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-111400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>-107000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>-105500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>-102200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>-95800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3">
         <v>-92500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,72 +1059,100 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1850600</v>
+        <v>1720400</v>
       </c>
       <c r="E17" s="3">
-        <v>2068100</v>
+        <v>1647000</v>
       </c>
       <c r="F17" s="3">
-        <v>1851500</v>
+        <v>1836300</v>
       </c>
       <c r="G17" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1685600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1883700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1686400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2778700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>2978400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>3119900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>3636900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>4021600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>3651800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2834800</v>
+        <v>2637300</v>
       </c>
       <c r="E18" s="3">
-        <v>2646100</v>
+        <v>2640700</v>
       </c>
       <c r="F18" s="3">
-        <v>2517500</v>
+        <v>2444400</v>
       </c>
       <c r="G18" s="3">
+        <v>2504200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2582000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2410200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2293000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1478100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>1561700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>1490500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>1266100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>810500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>1221600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,72 +1165,100 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1717700</v>
+        <v>-1784000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2675700</v>
+        <v>-1118700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1270100</v>
+        <v>-1081000</v>
       </c>
       <c r="G20" s="3">
+        <v>-915700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1564600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2437100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1156800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-851100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-126600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>-944400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-153200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>-740700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-449800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1229100</v>
+        <v>996000</v>
       </c>
       <c r="E21" s="3">
-        <v>81000</v>
+        <v>1658400</v>
       </c>
       <c r="F21" s="3">
-        <v>1358200</v>
+        <v>1497200</v>
       </c>
       <c r="G21" s="3">
+        <v>1691200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1119500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1237100</v>
+      </c>
+      <c r="K21" s="3">
         <v>738400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>1542100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>651600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>1215100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>165600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>864200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,72 +1289,108 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1117100</v>
+        <v>853200</v>
       </c>
       <c r="E23" s="3">
-        <v>-29600</v>
+        <v>1522000</v>
       </c>
       <c r="F23" s="3">
-        <v>1247400</v>
+        <v>1363400</v>
       </c>
       <c r="G23" s="3">
+        <v>1588500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1017500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1136200</v>
+      </c>
+      <c r="K23" s="3">
         <v>627000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>1435100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>546100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>1112900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>69800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>771700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>286200</v>
+        <v>-72000</v>
       </c>
       <c r="E24" s="3">
-        <v>-778600</v>
+        <v>707500</v>
       </c>
       <c r="F24" s="3">
-        <v>511200</v>
+        <v>505500</v>
       </c>
       <c r="G24" s="3">
+        <v>709100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>260700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-709200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>465600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-9800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>824200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>-34200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>598100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>-306700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1264,72 +1421,108 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>830900</v>
+        <v>925200</v>
       </c>
       <c r="E26" s="3">
-        <v>749000</v>
+        <v>814500</v>
       </c>
       <c r="F26" s="3">
-        <v>736200</v>
+        <v>857900</v>
       </c>
       <c r="G26" s="3">
+        <v>879400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>756800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>682200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>670600</v>
+      </c>
+      <c r="K26" s="3">
         <v>636800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>610900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>580300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>514800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>376500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>570800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>816700</v>
+        <v>912600</v>
       </c>
       <c r="E27" s="3">
-        <v>737300</v>
+        <v>802400</v>
       </c>
       <c r="F27" s="3">
-        <v>724600</v>
+        <v>842900</v>
       </c>
       <c r="G27" s="3">
+        <v>862800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>743900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>671500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>660000</v>
+      </c>
+      <c r="K27" s="3">
         <v>622100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>595800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>567100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>503000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>364200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>560600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,8 +1553,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1392,8 +1597,20 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1641,20 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1456,72 +1685,108 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1717700</v>
+        <v>1784000</v>
       </c>
       <c r="E32" s="3">
-        <v>2675700</v>
+        <v>1118700</v>
       </c>
       <c r="F32" s="3">
-        <v>1270100</v>
+        <v>1081000</v>
       </c>
       <c r="G32" s="3">
+        <v>915700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1564600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2437100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1156800</v>
+      </c>
+      <c r="K32" s="3">
         <v>851100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>126600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>944400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>153200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>740700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>449800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>816700</v>
+        <v>912600</v>
       </c>
       <c r="E33" s="3">
-        <v>737300</v>
+        <v>802400</v>
       </c>
       <c r="F33" s="3">
-        <v>724600</v>
+        <v>842900</v>
       </c>
       <c r="G33" s="3">
+        <v>862800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>743900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>671500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>660000</v>
+      </c>
+      <c r="K33" s="3">
         <v>622100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>595800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>567100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>503000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>364200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>560600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1552,77 +1817,113 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>816700</v>
+        <v>912600</v>
       </c>
       <c r="E35" s="3">
-        <v>737300</v>
+        <v>802400</v>
       </c>
       <c r="F35" s="3">
-        <v>724600</v>
+        <v>842900</v>
       </c>
       <c r="G35" s="3">
+        <v>862800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>743900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>671500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>660000</v>
+      </c>
+      <c r="K35" s="3">
         <v>622100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>595800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>567100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>503000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>364200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>560600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1936,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,72 +1954,100 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40148900</v>
+        <v>29952800</v>
       </c>
       <c r="E41" s="3">
-        <v>38266700</v>
+        <v>30597600</v>
       </c>
       <c r="F41" s="3">
-        <v>33559700</v>
+        <v>29166200</v>
       </c>
       <c r="G41" s="3">
+        <v>25996200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>36569000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>34854700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>30567400</v>
+      </c>
+      <c r="K41" s="3">
         <v>34141100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>35125200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>35783300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>34289600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>38365700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>39961200</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29614700</v>
+        <v>39782100</v>
       </c>
       <c r="E42" s="3">
-        <v>32094800</v>
+        <v>38711600</v>
       </c>
       <c r="F42" s="3">
-        <v>34251100</v>
+        <v>36201500</v>
       </c>
       <c r="G42" s="3">
+        <v>42323800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>26974100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>29233100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>31197100</v>
+      </c>
+      <c r="K42" s="3">
         <v>13927700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>15898100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>14503900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>20413800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>21535200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>15844000</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1745,8 +2078,20 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,8 +2122,20 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +2166,20 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1841,104 +2210,152 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>261000</v>
+        <v>248200</v>
       </c>
       <c r="E47" s="3">
-        <v>244400</v>
+        <v>240800</v>
       </c>
       <c r="F47" s="3">
-        <v>237900</v>
+        <v>241500</v>
       </c>
       <c r="G47" s="3">
+        <v>246000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>237700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>222600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>216700</v>
+      </c>
+      <c r="K47" s="3">
         <v>222200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>227900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>236400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>252500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>245600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1630400</v>
+        <v>2221000</v>
       </c>
       <c r="E48" s="3">
-        <v>1652800</v>
+        <v>2195800</v>
       </c>
       <c r="F48" s="3">
-        <v>1643900</v>
+        <v>2131200</v>
       </c>
       <c r="G48" s="3">
+        <v>1538700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1485100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1505400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1497300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1669000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>1629300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>1657800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>1671100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>1648800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7670500</v>
+        <v>7097200</v>
       </c>
       <c r="E49" s="3">
-        <v>7663100</v>
+        <v>7049300</v>
       </c>
       <c r="F49" s="3">
-        <v>7727600</v>
+        <v>7011400</v>
       </c>
       <c r="G49" s="3">
+        <v>7010000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6986600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6979800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7038500</v>
+      </c>
+      <c r="K49" s="3">
         <v>7743200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>7808100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>7790000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>7764800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>7501200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>7469300</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,8 +2386,20 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2001,40 +2430,64 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7323600</v>
+        <v>6785500</v>
       </c>
       <c r="E52" s="3">
-        <v>1601200</v>
+        <v>6785400</v>
       </c>
       <c r="F52" s="3">
-        <v>6823100</v>
+        <v>6525200</v>
       </c>
       <c r="G52" s="3">
+        <v>6786300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6670600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1458400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6214700</v>
+      </c>
+      <c r="K52" s="3">
         <v>6648800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>6680900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>6956900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>6593300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>6394300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>6408100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2065,40 +2518,64 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>180449800</v>
+        <v>175901900</v>
       </c>
       <c r="E54" s="3">
-        <v>178552600</v>
+        <v>172245000</v>
       </c>
       <c r="F54" s="3">
-        <v>172731000</v>
+        <v>164639300</v>
       </c>
       <c r="G54" s="3">
+        <v>169037000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>164360100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>162632000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>157329500</v>
+      </c>
+      <c r="K54" s="3">
         <v>165545300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>166997800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>162410000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>160175300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>157380300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>151795700</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2111,8 +2588,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2125,8 +2606,12 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,8 +2642,20 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2189,40 +2686,64 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1498300</v>
+        <v>1185600</v>
       </c>
       <c r="E59" s="3">
-        <v>1309400</v>
+        <v>1629500</v>
       </c>
       <c r="F59" s="3">
-        <v>1312100</v>
+        <v>1016900</v>
       </c>
       <c r="G59" s="3">
+        <v>1177700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1364700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1192700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1195100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1474600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>1454700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>1333000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>1343200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>1197400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>1390800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2253,72 +2774,108 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21667300</v>
+        <v>20449700</v>
       </c>
       <c r="E61" s="3">
-        <v>20500600</v>
+        <v>20523900</v>
       </c>
       <c r="F61" s="3">
-        <v>21458100</v>
+        <v>20483000</v>
       </c>
       <c r="G61" s="3">
+        <v>22019000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>19735400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>18672700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>19544800</v>
+      </c>
+      <c r="K61" s="3">
         <v>20306100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>20627600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>22696900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>25195100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>26946700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>26666400</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4017200</v>
+        <v>4895100</v>
       </c>
       <c r="E62" s="3">
-        <v>3984100</v>
+        <v>4738600</v>
       </c>
       <c r="F62" s="3">
-        <v>4563400</v>
+        <v>4187500</v>
       </c>
       <c r="G62" s="3">
+        <v>4139700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3659000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3628900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4156500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4226000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>4393000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>4107700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>3807800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>3236100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>3220500</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2349,8 +2906,20 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,8 +2950,20 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2413,40 +2994,64 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>157100200</v>
+        <v>152651200</v>
       </c>
       <c r="E66" s="3">
-        <v>155810400</v>
+        <v>149822900</v>
       </c>
       <c r="F66" s="3">
-        <v>150189900</v>
+        <v>142769800</v>
       </c>
       <c r="G66" s="3">
+        <v>147786000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>143092400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>141917700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>136798300</v>
+      </c>
+      <c r="K66" s="3">
         <v>143329800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>143947400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>139921600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>137821900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>136520000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>129998400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +3064,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +3100,20 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +3144,20 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2555,8 +3188,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2587,40 +3232,64 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9335000</v>
+        <v>10096800</v>
       </c>
       <c r="E72" s="3">
-        <v>8677800</v>
+        <v>9429700</v>
       </c>
       <c r="F72" s="3">
-        <v>8099500</v>
+        <v>8854300</v>
       </c>
       <c r="G72" s="3">
+        <v>8253300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>8502600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>7904000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>7377300</v>
+      </c>
+      <c r="K72" s="3">
         <v>7838400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>8505400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>8357000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>7917800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>7181600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>7980100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +3320,20 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,8 +3364,20 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2715,40 +3408,64 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23349600</v>
+        <v>23250600</v>
       </c>
       <c r="E76" s="3">
-        <v>22742200</v>
+        <v>22422000</v>
       </c>
       <c r="F76" s="3">
-        <v>22541100</v>
+        <v>21869600</v>
       </c>
       <c r="G76" s="3">
+        <v>21251000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>21267700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>20714400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>20531200</v>
+      </c>
+      <c r="K76" s="3">
         <v>22215500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>23050300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>22488400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>22353400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>20860300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>21797300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2779,77 +3496,113 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>816700</v>
+        <v>912600</v>
       </c>
       <c r="E81" s="3">
-        <v>737300</v>
+        <v>802400</v>
       </c>
       <c r="F81" s="3">
-        <v>724600</v>
+        <v>842900</v>
       </c>
       <c r="G81" s="3">
+        <v>862800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>743900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>671500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>660000</v>
+      </c>
+      <c r="K81" s="3">
         <v>622100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>595800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>567100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>503000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>364200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>560600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2862,40 +3615,56 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>112100</v>
+        <v>142800</v>
       </c>
       <c r="E83" s="3">
-        <v>110500</v>
+        <v>136400</v>
       </c>
       <c r="F83" s="3">
-        <v>110800</v>
+        <v>133800</v>
       </c>
       <c r="G83" s="3">
+        <v>102700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>102100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K83" s="3">
         <v>111400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>107000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>105500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>102200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>95800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>92500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3695,20 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3739,20 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3783,20 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,8 +3827,20 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3054,40 +3871,64 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>734400</v>
+        <v>301800</v>
       </c>
       <c r="E89" s="3">
-        <v>2795100</v>
+        <v>1012200</v>
       </c>
       <c r="F89" s="3">
-        <v>290900</v>
+        <v>1581900</v>
       </c>
       <c r="G89" s="3">
+        <v>-1546800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>668900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2545900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>264900</v>
+      </c>
+      <c r="K89" s="3">
         <v>3391900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>572300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>4069800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>4859700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>938000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>-677200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3100,40 +3941,56 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-59800</v>
+        <v>299900</v>
       </c>
       <c r="E91" s="3">
-        <v>-82800</v>
+        <v>-157900</v>
       </c>
       <c r="F91" s="3">
-        <v>-67300</v>
+        <v>-152600</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-134400</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-54400</v>
       </c>
       <c r="I91" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>33700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-44900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-111100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>102900</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,8 +4021,20 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3196,40 +4065,64 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-140300</v>
+        <v>-50300</v>
       </c>
       <c r="E94" s="3">
-        <v>150600</v>
+        <v>-132800</v>
       </c>
       <c r="F94" s="3">
-        <v>-141600</v>
+        <v>-427800</v>
       </c>
       <c r="G94" s="3">
+        <v>-431500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-127800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>137100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-175400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-63900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-69500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-63700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-20200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,40 +4135,56 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-154600</v>
+        <v>-198700</v>
       </c>
       <c r="E96" s="3">
-        <v>-136000</v>
+        <v>-205300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1137000</v>
+        <v>-1023200</v>
       </c>
       <c r="G96" s="3">
+        <v>-118600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-140900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-123800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1035600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-115600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>-145200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
         <v>-111300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="N96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>2800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3">
         <v>-109700</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +4215,20 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,8 +4259,20 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3370,100 +4303,148 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>591900</v>
+        <v>-931300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2615600</v>
+        <v>-459200</v>
       </c>
       <c r="F100" s="3">
-        <v>-318300</v>
+        <v>-2878400</v>
       </c>
       <c r="G100" s="3">
+        <v>1361900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>539100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2382400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-289900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-994800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-2583500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-3382600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-4395900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>19500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-2587800</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>33300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>-33200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>-303000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>437700</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1185400</v>
+        <v>-677900</v>
       </c>
       <c r="E102" s="3">
-        <v>330300</v>
+        <v>419900</v>
       </c>
       <c r="F102" s="3">
-        <v>-169100</v>
+        <v>-1725800</v>
       </c>
       <c r="G102" s="3">
+        <v>-616100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1079700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>300900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2222200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-2075800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>651000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>366900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>634300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-2475700</v>
       </c>
     </row>
